--- a/Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/Financials/Yearly/UMC_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56573C-1C69-4F38-9B06-36F80E5A0F25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="UMC" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,32 +651,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,97 +706,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4902100</v>
+        <v>5030700</v>
       </c>
       <c r="E8" s="3">
-        <v>4838300</v>
+        <v>4965200</v>
       </c>
       <c r="F8" s="3">
-        <v>4792500</v>
+        <v>4918200</v>
       </c>
       <c r="G8" s="3">
-        <v>4694000</v>
+        <v>4817100</v>
       </c>
       <c r="H8" s="3">
-        <v>4537800</v>
+        <v>4656800</v>
       </c>
       <c r="I8" s="3">
-        <v>4012700</v>
+        <v>4118000</v>
       </c>
       <c r="J8" s="3">
-        <v>3749000</v>
+        <v>3847300</v>
       </c>
       <c r="K8" s="3">
         <v>3805700</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4161900</v>
+        <v>4271000</v>
       </c>
       <c r="E9" s="3">
-        <v>3961400</v>
+        <v>4065300</v>
       </c>
       <c r="F9" s="3">
-        <v>3807900</v>
+        <v>3907700</v>
       </c>
       <c r="G9" s="3">
-        <v>3664300</v>
+        <v>3760400</v>
       </c>
       <c r="H9" s="3">
-        <v>3505400</v>
+        <v>3597400</v>
       </c>
       <c r="I9" s="3">
-        <v>3249100</v>
+        <v>3334300</v>
       </c>
       <c r="J9" s="3">
-        <v>6243100</v>
+        <v>6406800</v>
       </c>
       <c r="K9" s="3">
         <v>3111500</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>740200</v>
+        <v>759700</v>
       </c>
       <c r="E10" s="3">
-        <v>876900</v>
+        <v>899900</v>
       </c>
       <c r="F10" s="3">
-        <v>984600</v>
+        <v>1010400</v>
       </c>
       <c r="G10" s="3">
-        <v>1029600</v>
+        <v>1056600</v>
       </c>
       <c r="H10" s="3">
-        <v>1032300</v>
+        <v>1059400</v>
       </c>
       <c r="I10" s="3">
-        <v>763700</v>
+        <v>783700</v>
       </c>
       <c r="J10" s="3">
-        <v>-2494100</v>
+        <v>-2559500</v>
       </c>
       <c r="K10" s="3">
         <v>694100</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,37 +810,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>422100</v>
+        <v>433200</v>
       </c>
       <c r="E12" s="3">
-        <v>443000</v>
+        <v>454700</v>
       </c>
       <c r="F12" s="3">
-        <v>438600</v>
+        <v>450100</v>
       </c>
       <c r="G12" s="3">
-        <v>394600</v>
+        <v>404900</v>
       </c>
       <c r="H12" s="3">
-        <v>442800</v>
+        <v>454500</v>
       </c>
       <c r="I12" s="3">
-        <v>404900</v>
+        <v>415500</v>
       </c>
       <c r="J12" s="3">
-        <v>634400</v>
+        <v>651000</v>
       </c>
       <c r="K12" s="3">
         <v>306400</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,7 +870,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,29 +878,29 @@
         <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="F14" s="3">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="G14" s="3">
-        <v>73500</v>
+        <v>75400</v>
       </c>
       <c r="H14" s="3">
-        <v>29200</v>
+        <v>30000</v>
       </c>
       <c r="I14" s="3">
-        <v>43200</v>
+        <v>44300</v>
       </c>
       <c r="J14" s="3">
-        <v>230000</v>
+        <v>236100</v>
       </c>
       <c r="K14" s="3">
         <v>68700</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +930,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,57 +941,57 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4715700</v>
+        <v>4839400</v>
       </c>
       <c r="E17" s="3">
-        <v>4656100</v>
+        <v>4778200</v>
       </c>
       <c r="F17" s="3">
-        <v>4644300</v>
+        <v>4766100</v>
       </c>
       <c r="G17" s="3">
-        <v>4383100</v>
+        <v>4498100</v>
       </c>
       <c r="H17" s="3">
-        <v>4221100</v>
+        <v>4331800</v>
       </c>
       <c r="I17" s="3">
-        <v>3923400</v>
+        <v>4026300</v>
       </c>
       <c r="J17" s="3">
-        <v>3750800</v>
+        <v>3849100</v>
       </c>
       <c r="K17" s="3">
         <v>3710000</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>186400</v>
+        <v>191300</v>
       </c>
       <c r="E18" s="3">
-        <v>182200</v>
+        <v>187000</v>
       </c>
       <c r="F18" s="3">
-        <v>148100</v>
+        <v>152000</v>
       </c>
       <c r="G18" s="3">
-        <v>310800</v>
+        <v>319000</v>
       </c>
       <c r="H18" s="3">
-        <v>316700</v>
+        <v>325000</v>
       </c>
       <c r="I18" s="3">
-        <v>89300</v>
+        <v>91700</v>
       </c>
       <c r="J18" s="3">
         <v>-1800</v>
@@ -1036,7 +1001,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,157 +1015,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="E20" s="3">
-        <v>148500</v>
+        <v>152400</v>
       </c>
       <c r="F20" s="3">
-        <v>49400</v>
+        <v>50700</v>
       </c>
       <c r="G20" s="3">
-        <v>148800</v>
+        <v>152700</v>
       </c>
       <c r="H20" s="3">
-        <v>147400</v>
+        <v>151200</v>
       </c>
       <c r="I20" s="3">
-        <v>398100</v>
+        <v>408600</v>
       </c>
       <c r="J20" s="3">
-        <v>243300</v>
+        <v>249700</v>
       </c>
       <c r="K20" s="3">
         <v>222000</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1846900</v>
+        <v>1899000</v>
       </c>
       <c r="E21" s="3">
-        <v>2051200</v>
+        <v>2108700</v>
       </c>
       <c r="F21" s="3">
-        <v>1881800</v>
+        <v>1934900</v>
       </c>
       <c r="G21" s="3">
-        <v>1932900</v>
+        <v>1986800</v>
       </c>
       <c r="H21" s="3">
-        <v>1781400</v>
+        <v>1830900</v>
       </c>
       <c r="I21" s="3">
-        <v>1732700</v>
+        <v>1780800</v>
       </c>
       <c r="J21" s="3">
-        <v>1402900</v>
+        <v>1442200</v>
       </c>
       <c r="K21" s="3">
         <v>1371900</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>89700</v>
+        <v>92100</v>
       </c>
       <c r="E22" s="3">
-        <v>78000</v>
+        <v>80100</v>
       </c>
       <c r="F22" s="3">
-        <v>40500</v>
+        <v>41600</v>
       </c>
       <c r="G22" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="H22" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="I22" s="3">
-        <v>22000</v>
+        <v>22600</v>
       </c>
       <c r="J22" s="3">
-        <v>34900</v>
+        <v>35800</v>
       </c>
       <c r="K22" s="3">
         <v>11700</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>70800</v>
+        <v>72700</v>
       </c>
       <c r="E23" s="3">
-        <v>252700</v>
+        <v>259400</v>
       </c>
       <c r="F23" s="3">
-        <v>157100</v>
+        <v>161200</v>
       </c>
       <c r="G23" s="3">
-        <v>444400</v>
+        <v>456100</v>
       </c>
       <c r="H23" s="3">
-        <v>439900</v>
+        <v>451400</v>
       </c>
       <c r="I23" s="3">
-        <v>465500</v>
+        <v>477700</v>
       </c>
       <c r="J23" s="3">
-        <v>206700</v>
+        <v>212100</v>
       </c>
       <c r="K23" s="3">
         <v>305900</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-14900</v>
+        <v>-15300</v>
       </c>
       <c r="E24" s="3">
-        <v>37800</v>
+        <v>38800</v>
       </c>
       <c r="F24" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="G24" s="3">
-        <v>28400</v>
+        <v>29200</v>
       </c>
       <c r="H24" s="3">
-        <v>101300</v>
+        <v>103900</v>
       </c>
       <c r="I24" s="3">
-        <v>73100</v>
+        <v>75100</v>
       </c>
       <c r="J24" s="3">
-        <v>69600</v>
+        <v>71400</v>
       </c>
       <c r="K24" s="3">
         <v>29800</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,67 +1195,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>85700</v>
+        <v>87900</v>
       </c>
       <c r="E26" s="3">
-        <v>214900</v>
+        <v>220600</v>
       </c>
       <c r="F26" s="3">
-        <v>125200</v>
+        <v>128500</v>
       </c>
       <c r="G26" s="3">
-        <v>416000</v>
+        <v>426900</v>
       </c>
       <c r="H26" s="3">
-        <v>338600</v>
+        <v>347500</v>
       </c>
       <c r="I26" s="3">
-        <v>392300</v>
+        <v>402600</v>
       </c>
       <c r="J26" s="3">
-        <v>137100</v>
+        <v>140700</v>
       </c>
       <c r="K26" s="3">
         <v>276100</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>229200</v>
+        <v>235200</v>
       </c>
       <c r="E27" s="3">
-        <v>312100</v>
+        <v>320300</v>
       </c>
       <c r="F27" s="3">
-        <v>269500</v>
+        <v>276600</v>
       </c>
       <c r="G27" s="3">
-        <v>435900</v>
+        <v>447300</v>
       </c>
       <c r="H27" s="3">
-        <v>360000</v>
+        <v>369500</v>
       </c>
       <c r="I27" s="3">
-        <v>409300</v>
+        <v>420100</v>
       </c>
       <c r="J27" s="3">
-        <v>110600</v>
+        <v>113500</v>
       </c>
       <c r="K27" s="3">
         <v>215400</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1285,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1315,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1345,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,67 +1375,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="E32" s="3">
-        <v>-148500</v>
+        <v>-152400</v>
       </c>
       <c r="F32" s="3">
-        <v>-49400</v>
+        <v>-50700</v>
       </c>
       <c r="G32" s="3">
-        <v>-148800</v>
+        <v>-152700</v>
       </c>
       <c r="H32" s="3">
-        <v>-147400</v>
+        <v>-151200</v>
       </c>
       <c r="I32" s="3">
-        <v>-398100</v>
+        <v>-408600</v>
       </c>
       <c r="J32" s="3">
-        <v>-243300</v>
+        <v>-249700</v>
       </c>
       <c r="K32" s="3">
         <v>-222000</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>229200</v>
+        <v>235200</v>
       </c>
       <c r="E33" s="3">
-        <v>312100</v>
+        <v>320300</v>
       </c>
       <c r="F33" s="3">
-        <v>269500</v>
+        <v>276600</v>
       </c>
       <c r="G33" s="3">
-        <v>435900</v>
+        <v>447300</v>
       </c>
       <c r="H33" s="3">
-        <v>360000</v>
+        <v>369500</v>
       </c>
       <c r="I33" s="3">
-        <v>409300</v>
+        <v>420100</v>
       </c>
       <c r="J33" s="3">
-        <v>110600</v>
+        <v>113500</v>
       </c>
       <c r="K33" s="3">
         <v>215400</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,42 +1465,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>229200</v>
+        <v>235200</v>
       </c>
       <c r="E35" s="3">
-        <v>312100</v>
+        <v>320300</v>
       </c>
       <c r="F35" s="3">
-        <v>269500</v>
+        <v>276600</v>
       </c>
       <c r="G35" s="3">
-        <v>435900</v>
+        <v>447300</v>
       </c>
       <c r="H35" s="3">
-        <v>360000</v>
+        <v>369500</v>
       </c>
       <c r="I35" s="3">
-        <v>409300</v>
+        <v>420100</v>
       </c>
       <c r="J35" s="3">
-        <v>110600</v>
+        <v>113500</v>
       </c>
       <c r="K35" s="3">
         <v>215400</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1530,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1544,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,277 +1558,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2711500</v>
+        <v>2782600</v>
       </c>
       <c r="E41" s="3">
-        <v>2647100</v>
+        <v>2716500</v>
       </c>
       <c r="F41" s="3">
-        <v>1866100</v>
+        <v>1915100</v>
       </c>
       <c r="G41" s="3">
-        <v>1727100</v>
+        <v>1772400</v>
       </c>
       <c r="H41" s="3">
-        <v>1481200</v>
+        <v>1520000</v>
       </c>
       <c r="I41" s="3">
-        <v>1647400</v>
+        <v>1690600</v>
       </c>
       <c r="J41" s="3">
-        <v>1525800</v>
+        <v>1565800</v>
       </c>
       <c r="K41" s="3">
         <v>115300</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="E42" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="F42" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="G42" s="3">
-        <v>21500</v>
+        <v>22100</v>
       </c>
       <c r="H42" s="3">
-        <v>24000</v>
+        <v>24600</v>
       </c>
       <c r="I42" s="3">
-        <v>89700</v>
+        <v>92100</v>
       </c>
       <c r="J42" s="3">
-        <v>1555000</v>
+        <v>1595700</v>
       </c>
       <c r="K42" s="3">
         <v>1675100</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>800400</v>
+        <v>821400</v>
       </c>
       <c r="E43" s="3">
-        <v>734300</v>
+        <v>753600</v>
       </c>
       <c r="F43" s="3">
-        <v>777900</v>
+        <v>798300</v>
       </c>
       <c r="G43" s="3">
-        <v>647800</v>
+        <v>664800</v>
       </c>
       <c r="H43" s="3">
-        <v>747400</v>
+        <v>767100</v>
       </c>
       <c r="I43" s="3">
-        <v>570600</v>
+        <v>585500</v>
       </c>
       <c r="J43" s="3">
-        <v>1112900</v>
+        <v>1142100</v>
       </c>
       <c r="K43" s="3">
         <v>499600</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>590000</v>
+        <v>605400</v>
       </c>
       <c r="E44" s="3">
-        <v>591700</v>
+        <v>607200</v>
       </c>
       <c r="F44" s="3">
-        <v>550900</v>
+        <v>565300</v>
       </c>
       <c r="G44" s="3">
-        <v>571800</v>
+        <v>586800</v>
       </c>
       <c r="H44" s="3">
-        <v>443600</v>
+        <v>455200</v>
       </c>
       <c r="I44" s="3">
-        <v>453500</v>
+        <v>465400</v>
       </c>
       <c r="J44" s="3">
-        <v>844200</v>
+        <v>866300</v>
       </c>
       <c r="K44" s="3">
         <v>414400</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>457100</v>
+        <v>469100</v>
       </c>
       <c r="E45" s="3">
-        <v>513800</v>
+        <v>527300</v>
       </c>
       <c r="F45" s="3">
-        <v>362200</v>
+        <v>371700</v>
       </c>
       <c r="G45" s="3">
-        <v>104700</v>
+        <v>107500</v>
       </c>
       <c r="H45" s="3">
-        <v>392700</v>
+        <v>403000</v>
       </c>
       <c r="I45" s="3">
-        <v>116800</v>
+        <v>119800</v>
       </c>
       <c r="J45" s="3">
-        <v>178400</v>
+        <v>183000</v>
       </c>
       <c r="K45" s="3">
         <v>36600</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4576100</v>
+        <v>4696100</v>
       </c>
       <c r="E46" s="3">
-        <v>4510200</v>
+        <v>4628500</v>
       </c>
       <c r="F46" s="3">
-        <v>3580300</v>
+        <v>3674200</v>
       </c>
       <c r="G46" s="3">
-        <v>3073000</v>
+        <v>3153600</v>
       </c>
       <c r="H46" s="3">
-        <v>3139300</v>
+        <v>3221700</v>
       </c>
       <c r="I46" s="3">
-        <v>2877900</v>
+        <v>2953400</v>
       </c>
       <c r="J46" s="3">
-        <v>2593700</v>
+        <v>2661700</v>
       </c>
       <c r="K46" s="3">
         <v>2741100</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1085900</v>
+        <v>1114400</v>
       </c>
       <c r="E47" s="3">
-        <v>1102700</v>
+        <v>1131600</v>
       </c>
       <c r="F47" s="3">
-        <v>1126800</v>
+        <v>1156300</v>
       </c>
       <c r="G47" s="3">
-        <v>1301300</v>
+        <v>1335400</v>
       </c>
       <c r="H47" s="3">
-        <v>2004200</v>
+        <v>2056800</v>
       </c>
       <c r="I47" s="3">
-        <v>976300</v>
+        <v>1001900</v>
       </c>
       <c r="J47" s="3">
-        <v>2251700</v>
+        <v>2310700</v>
       </c>
       <c r="K47" s="3">
         <v>1301900</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5623400</v>
+        <v>5770900</v>
       </c>
       <c r="E48" s="3">
-        <v>6677400</v>
+        <v>6852500</v>
       </c>
       <c r="F48" s="3">
-        <v>7329900</v>
+        <v>7522200</v>
       </c>
       <c r="G48" s="3">
-        <v>6118000</v>
+        <v>6278400</v>
       </c>
       <c r="H48" s="3">
-        <v>5436900</v>
+        <v>5579500</v>
       </c>
       <c r="I48" s="3">
-        <v>10537000</v>
+        <v>10813300</v>
       </c>
       <c r="J48" s="3">
-        <v>10343400</v>
+        <v>10614700</v>
       </c>
       <c r="K48" s="3">
         <v>4869500</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>97000</v>
+        <v>99500</v>
       </c>
       <c r="E49" s="3">
-        <v>122800</v>
+        <v>126000</v>
       </c>
       <c r="F49" s="3">
-        <v>132500</v>
+        <v>136000</v>
       </c>
       <c r="G49" s="3">
-        <v>146000</v>
+        <v>149800</v>
       </c>
       <c r="H49" s="3">
-        <v>146900</v>
+        <v>150800</v>
       </c>
       <c r="I49" s="3">
-        <v>307200</v>
+        <v>315300</v>
       </c>
       <c r="J49" s="3">
-        <v>134700</v>
+        <v>138200</v>
       </c>
       <c r="K49" s="3">
         <v>11400</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1858,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1923,37 +1888,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>434500</v>
+        <v>445900</v>
       </c>
       <c r="E52" s="3">
-        <v>359800</v>
+        <v>369200</v>
       </c>
       <c r="F52" s="3">
-        <v>362000</v>
+        <v>371500</v>
       </c>
       <c r="G52" s="3">
-        <v>295800</v>
+        <v>303600</v>
       </c>
       <c r="H52" s="3">
-        <v>214500</v>
+        <v>220100</v>
       </c>
       <c r="I52" s="3">
-        <v>242800</v>
+        <v>249200</v>
       </c>
       <c r="J52" s="3">
-        <v>274100</v>
+        <v>281300</v>
       </c>
       <c r="K52" s="3">
         <v>201400</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,37 +1948,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>11816800</v>
+        <v>12126800</v>
       </c>
       <c r="E54" s="3">
-        <v>12772800</v>
+        <v>13107700</v>
       </c>
       <c r="F54" s="3">
-        <v>12531500</v>
+        <v>12860200</v>
       </c>
       <c r="G54" s="3">
-        <v>10934100</v>
+        <v>11220800</v>
       </c>
       <c r="H54" s="3">
-        <v>10152300</v>
+        <v>10418600</v>
       </c>
       <c r="I54" s="3">
-        <v>9525800</v>
+        <v>9775600</v>
       </c>
       <c r="J54" s="3">
-        <v>9114100</v>
+        <v>9353200</v>
       </c>
       <c r="K54" s="3">
         <v>9125300</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +1992,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2041,187 +2006,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>220400</v>
+        <v>226200</v>
       </c>
       <c r="E57" s="3">
-        <v>211800</v>
+        <v>217400</v>
       </c>
       <c r="F57" s="3">
-        <v>222200</v>
+        <v>228000</v>
       </c>
       <c r="G57" s="3">
-        <v>193000</v>
+        <v>198000</v>
       </c>
       <c r="H57" s="3">
-        <v>199900</v>
+        <v>205100</v>
       </c>
       <c r="I57" s="3">
-        <v>240300</v>
+        <v>246600</v>
       </c>
       <c r="J57" s="3">
-        <v>406200</v>
+        <v>416800</v>
       </c>
       <c r="K57" s="3">
         <v>163400</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>590700</v>
+        <v>606200</v>
       </c>
       <c r="E58" s="3">
-        <v>1711600</v>
+        <v>1756400</v>
       </c>
       <c r="F58" s="3">
-        <v>1006400</v>
+        <v>1032800</v>
       </c>
       <c r="G58" s="3">
-        <v>392400</v>
+        <v>402700</v>
       </c>
       <c r="H58" s="3">
-        <v>324900</v>
+        <v>333500</v>
       </c>
       <c r="I58" s="3">
-        <v>686700</v>
+        <v>704700</v>
       </c>
       <c r="J58" s="3">
-        <v>950200</v>
+        <v>975200</v>
       </c>
       <c r="K58" s="3">
         <v>567900</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>806100</v>
+        <v>827300</v>
       </c>
       <c r="E59" s="3">
-        <v>930700</v>
+        <v>955100</v>
       </c>
       <c r="F59" s="3">
-        <v>1104300</v>
+        <v>1133200</v>
       </c>
       <c r="G59" s="3">
-        <v>978300</v>
+        <v>1003900</v>
       </c>
       <c r="H59" s="3">
-        <v>1034300</v>
+        <v>1061400</v>
       </c>
       <c r="I59" s="3">
-        <v>635300</v>
+        <v>652000</v>
       </c>
       <c r="J59" s="3">
-        <v>1241400</v>
+        <v>1274000</v>
       </c>
       <c r="K59" s="3">
         <v>667900</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1617200</v>
+        <v>1659700</v>
       </c>
       <c r="E60" s="3">
-        <v>2854100</v>
+        <v>2928900</v>
       </c>
       <c r="F60" s="3">
-        <v>2332800</v>
+        <v>2394000</v>
       </c>
       <c r="G60" s="3">
-        <v>1563600</v>
+        <v>1604600</v>
       </c>
       <c r="H60" s="3">
-        <v>1559100</v>
+        <v>1600000</v>
       </c>
       <c r="I60" s="3">
-        <v>1562300</v>
+        <v>1603300</v>
       </c>
       <c r="J60" s="3">
-        <v>1300300</v>
+        <v>1334400</v>
       </c>
       <c r="K60" s="3">
         <v>1399200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2174200</v>
+        <v>2231200</v>
       </c>
       <c r="E61" s="3">
-        <v>1728100</v>
+        <v>1773400</v>
       </c>
       <c r="F61" s="3">
-        <v>1968200</v>
+        <v>2019800</v>
       </c>
       <c r="G61" s="3">
-        <v>1540300</v>
+        <v>1580700</v>
       </c>
       <c r="H61" s="3">
-        <v>1082500</v>
+        <v>1110900</v>
       </c>
       <c r="I61" s="3">
-        <v>920900</v>
+        <v>945100</v>
       </c>
       <c r="J61" s="3">
-        <v>1042100</v>
+        <v>1069500</v>
       </c>
       <c r="K61" s="3">
         <v>687900</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1331600</v>
+        <v>1366500</v>
       </c>
       <c r="E62" s="3">
-        <v>1253700</v>
+        <v>1286500</v>
       </c>
       <c r="F62" s="3">
-        <v>1141000</v>
+        <v>1171000</v>
       </c>
       <c r="G62" s="3">
-        <v>414200</v>
+        <v>425000</v>
       </c>
       <c r="H62" s="3">
-        <v>218100</v>
+        <v>223800</v>
       </c>
       <c r="I62" s="3">
-        <v>248000</v>
+        <v>254500</v>
       </c>
       <c r="J62" s="3">
-        <v>356500</v>
+        <v>365900</v>
       </c>
       <c r="K62" s="3">
         <v>120800</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2216,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2246,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,37 +2276,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5138100</v>
+        <v>5272900</v>
       </c>
       <c r="E66" s="3">
-        <v>5866800</v>
+        <v>6020700</v>
       </c>
       <c r="F66" s="3">
-        <v>5512100</v>
+        <v>5656700</v>
       </c>
       <c r="G66" s="3">
-        <v>3583800</v>
+        <v>3677800</v>
       </c>
       <c r="H66" s="3">
-        <v>2984500</v>
+        <v>3062800</v>
       </c>
       <c r="I66" s="3">
-        <v>2871200</v>
+        <v>2946500</v>
       </c>
       <c r="J66" s="3">
-        <v>2660800</v>
+        <v>2730600</v>
       </c>
       <c r="K66" s="3">
         <v>2351000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2320,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2350,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2380,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2410,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2475,37 +2440,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1996100</v>
+        <v>2048400</v>
       </c>
       <c r="E72" s="3">
-        <v>1557800</v>
+        <v>1598700</v>
       </c>
       <c r="F72" s="3">
-        <v>1544500</v>
+        <v>1585000</v>
       </c>
       <c r="G72" s="3">
-        <v>1643400</v>
+        <v>1686500</v>
       </c>
       <c r="H72" s="3">
-        <v>1437000</v>
+        <v>1474700</v>
       </c>
       <c r="I72" s="3">
-        <v>1241400</v>
+        <v>1274000</v>
       </c>
       <c r="J72" s="3">
-        <v>1824100</v>
+        <v>1872000</v>
       </c>
       <c r="K72" s="3">
         <v>798900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2500,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2530,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2595,37 +2560,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6678700</v>
+        <v>6853900</v>
       </c>
       <c r="E76" s="3">
-        <v>6905900</v>
+        <v>7087100</v>
       </c>
       <c r="F76" s="3">
-        <v>7019400</v>
+        <v>7203400</v>
       </c>
       <c r="G76" s="3">
-        <v>7350300</v>
+        <v>7543000</v>
       </c>
       <c r="H76" s="3">
-        <v>7167800</v>
+        <v>7355800</v>
       </c>
       <c r="I76" s="3">
-        <v>6654600</v>
+        <v>6829100</v>
       </c>
       <c r="J76" s="3">
-        <v>6453400</v>
+        <v>6622600</v>
       </c>
       <c r="K76" s="3">
         <v>6774300</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2655,12 +2620,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2690,37 +2655,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>229200</v>
+        <v>235200</v>
       </c>
       <c r="E81" s="3">
-        <v>312100</v>
+        <v>320300</v>
       </c>
       <c r="F81" s="3">
-        <v>269500</v>
+        <v>276600</v>
       </c>
       <c r="G81" s="3">
-        <v>435900</v>
+        <v>447300</v>
       </c>
       <c r="H81" s="3">
-        <v>360000</v>
+        <v>369500</v>
       </c>
       <c r="I81" s="3">
-        <v>409300</v>
+        <v>420100</v>
       </c>
       <c r="J81" s="3">
-        <v>110600</v>
+        <v>113500</v>
       </c>
       <c r="K81" s="3">
         <v>215400</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2734,37 +2699,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1686900</v>
+        <v>1731100</v>
       </c>
       <c r="E83" s="3">
-        <v>1720900</v>
+        <v>1766100</v>
       </c>
       <c r="F83" s="3">
-        <v>1684800</v>
+        <v>1729000</v>
       </c>
       <c r="G83" s="3">
-        <v>1473800</v>
+        <v>1512400</v>
       </c>
       <c r="H83" s="3">
-        <v>1317700</v>
+        <v>1352300</v>
       </c>
       <c r="I83" s="3">
-        <v>1245600</v>
+        <v>1278300</v>
       </c>
       <c r="J83" s="3">
-        <v>1161600</v>
+        <v>1192100</v>
       </c>
       <c r="K83" s="3">
         <v>1055600</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2759,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2789,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2819,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2849,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,37 +2879,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1650800</v>
+        <v>1694100</v>
       </c>
       <c r="E89" s="3">
-        <v>1700700</v>
+        <v>1745300</v>
       </c>
       <c r="F89" s="3">
-        <v>1505500</v>
+        <v>1544900</v>
       </c>
       <c r="G89" s="3">
-        <v>1937700</v>
+        <v>1988600</v>
       </c>
       <c r="H89" s="3">
-        <v>1451600</v>
+        <v>1489700</v>
       </c>
       <c r="I89" s="3">
-        <v>1408900</v>
+        <v>1445900</v>
       </c>
       <c r="J89" s="3">
-        <v>1309300</v>
+        <v>1343600</v>
       </c>
       <c r="K89" s="3">
         <v>1358300</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,37 +2923,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-634900</v>
+        <v>-651600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1433700</v>
+        <v>-1471300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2967500</v>
+        <v>-3045300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1960900</v>
+        <v>-2012400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1401300</v>
+        <v>-1438100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1066700</v>
+        <v>-1094600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1709300</v>
+        <v>-1754100</v>
       </c>
       <c r="K91" s="3">
         <v>-1751400</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +2983,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,37 +3013,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-502300</v>
+        <v>-515500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1147800</v>
+        <v>-1177900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2595600</v>
+        <v>-2663700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2219500</v>
+        <v>-2277700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1380900</v>
+        <v>-1417100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1021400</v>
+        <v>-1048200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1592100</v>
+        <v>-1633800</v>
       </c>
       <c r="K94" s="3">
         <v>-1797500</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3092,37 +3057,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-277400</v>
+        <v>-284600</v>
       </c>
       <c r="E96" s="3">
-        <v>-197800</v>
+        <v>-203000</v>
       </c>
       <c r="F96" s="3">
-        <v>-223800</v>
+        <v>-229700</v>
       </c>
       <c r="G96" s="3">
-        <v>-224900</v>
+        <v>-230800</v>
       </c>
       <c r="H96" s="3">
-        <v>-202700</v>
+        <v>-208000</v>
       </c>
       <c r="I96" s="3">
-        <v>-164000</v>
+        <v>-168300</v>
       </c>
       <c r="J96" s="3">
-        <v>-204700</v>
+        <v>-210100</v>
       </c>
       <c r="K96" s="3">
         <v>-457100</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3117,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3147,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,37 +3177,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1085200</v>
+        <v>-1113700</v>
       </c>
       <c r="E100" s="3">
-        <v>296900</v>
+        <v>304700</v>
       </c>
       <c r="F100" s="3">
-        <v>1257400</v>
+        <v>1290300</v>
       </c>
       <c r="G100" s="3">
-        <v>487700</v>
+        <v>500500</v>
       </c>
       <c r="H100" s="3">
-        <v>-267600</v>
+        <v>-274700</v>
       </c>
       <c r="I100" s="3">
-        <v>-127200</v>
+        <v>-130500</v>
       </c>
       <c r="J100" s="3">
-        <v>116300</v>
+        <v>119300</v>
       </c>
       <c r="K100" s="3">
         <v>323600</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3250,52 +3215,52 @@
         <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-68900</v>
+        <v>-70700</v>
       </c>
       <c r="F101" s="3">
-        <v>-28200</v>
+        <v>-29000</v>
       </c>
       <c r="G101" s="3">
-        <v>23400</v>
+        <v>24000</v>
       </c>
       <c r="H101" s="3">
-        <v>47200</v>
+        <v>48500</v>
       </c>
       <c r="I101" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="J101" s="3">
-        <v>-46500</v>
+        <v>-47800</v>
       </c>
       <c r="K101" s="3">
         <v>43800</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>64400</v>
+        <v>66100</v>
       </c>
       <c r="E102" s="3">
-        <v>780900</v>
+        <v>801400</v>
       </c>
       <c r="F102" s="3">
-        <v>139000</v>
+        <v>142600</v>
       </c>
       <c r="G102" s="3">
-        <v>229400</v>
+        <v>235400</v>
       </c>
       <c r="H102" s="3">
-        <v>-149700</v>
+        <v>-153600</v>
       </c>
       <c r="I102" s="3">
-        <v>270400</v>
+        <v>277500</v>
       </c>
       <c r="J102" s="3">
-        <v>-213100</v>
+        <v>-218600</v>
       </c>
       <c r="K102" s="3">
         <v>-71800</v>
